--- a/Documents/RemainingClassSchedule.xlsx
+++ b/Documents/RemainingClassSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9D81E1-929E-486A-9229-1CFB3F34DF8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F4E21C-104C-415A-AB56-F70C5AB25827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{252FD85A-8346-4D93-ADC6-426943CF0C9A}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,9 +706,6 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="9"/>
       <c r="G7" s="9"/>
       <c r="J7" s="9"/>
@@ -726,6 +723,9 @@
       <c r="D8" s="9"/>
       <c r="G8" s="9"/>
       <c r="J8" s="9"/>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">

--- a/Documents/RemainingClassSchedule.xlsx
+++ b/Documents/RemainingClassSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F4E21C-104C-415A-AB56-F70C5AB25827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFE6EB7-A8F1-433F-B234-99F56A750788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{252FD85A-8346-4D93-ADC6-426943CF0C9A}"/>
+    <workbookView xWindow="19080" yWindow="-3990" windowWidth="15600" windowHeight="18840" xr2:uid="{252FD85A-8346-4D93-ADC6-426943CF0C9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
-  <si>
-    <t>Summer A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Summer B</t>
   </si>
@@ -45,15 +42,6 @@
     <t>Spring</t>
   </si>
   <si>
-    <t>PreReqs</t>
-  </si>
-  <si>
-    <t>CTS 1334</t>
-  </si>
-  <si>
-    <t>ISM 3321</t>
-  </si>
-  <si>
     <t>CTS 1334 Windows Server</t>
   </si>
   <si>
@@ -87,25 +75,16 @@
     <t>ISM 4881 Capstone</t>
   </si>
   <si>
-    <t xml:space="preserve">CTS 1334 </t>
-  </si>
-  <si>
-    <t>CTS 1334 | ISM 3321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISM 3212 </t>
-  </si>
-  <si>
-    <t>Everything Else</t>
-  </si>
-  <si>
     <t xml:space="preserve">CIS 4200 Security Penetration Testing </t>
   </si>
   <si>
     <t>CTS 4425 - Web App Development</t>
   </si>
   <si>
-    <t>&lt;--- May Need To Do This</t>
+    <t>Registered!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -121,24 +100,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -149,18 +116,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,19 +172,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,249 +494,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCE6B1F-D3CA-4DDD-B962-76D0C4E46501}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="2.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" customWidth="1"/>
-    <col min="14" max="14" width="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="13" max="13" width="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="4" t="s">
+    <row r="1" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="3" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
